--- a/data/trans_camb/P14_x_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P14_x_R-Habitat-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 9,33</t>
+          <t>0,85; 10,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,74; 14,51</t>
+          <t>3,8; 15,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,72; 23,74</t>
+          <t>8,95; 22,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,11; 11,77</t>
+          <t>5,32; 12,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,07; 14,59</t>
+          <t>6,11; 13,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,42; 11,4</t>
+          <t>5,62; 11,61</t>
         </is>
       </c>
     </row>
@@ -906,12 +906,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 3,99</t>
+          <t>1,32; 3,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,93; 10,9</t>
+          <t>5,87; 10,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,46; 13,84</t>
+          <t>8,49; 14,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,4; 13,88</t>
+          <t>9,37; 13,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,51; 8,52</t>
+          <t>5,33; 8,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,39; 11,45</t>
+          <t>8,29; 11,47</t>
         </is>
       </c>
     </row>
@@ -1122,12 +1122,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,2</t>
+          <t>1,45; 3,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,17; 5,93</t>
+          <t>3,18; 5,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,25; 11,06</t>
+          <t>7,21; 11,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,7; 13,11</t>
+          <t>9,66; 13,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,57; 6,76</t>
+          <t>4,64; 6,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,84; 9,06</t>
+          <t>6,81; 9,02</t>
         </is>
       </c>
     </row>
@@ -1338,12 +1338,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,46; 5,43</t>
+          <t>2,43; 5,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,24; 8,26</t>
+          <t>4,1; 8,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,17; 11,49</t>
+          <t>7,22; 11,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,47; 15,31</t>
+          <t>7,98; 15,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,27; 7,78</t>
+          <t>5,3; 7,92</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,36; 11,18</t>
+          <t>7,61; 11,28</t>
         </is>
       </c>
     </row>
@@ -1554,12 +1554,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,26; 5,94</t>
+          <t>3,22; 6,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,54; 8,82</t>
+          <t>5,51; 8,71</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1569,12 +1569,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>9,12; 13,2</t>
+          <t>9,12; 13,47</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>11,04; 14,85</t>
+          <t>11,12; 14,83</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1584,12 +1584,12 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,79; 9,29</t>
+          <t>6,79; 9,28</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>8,9; 11,46</t>
+          <t>8,87; 11,47</t>
         </is>
       </c>
     </row>
@@ -1770,12 +1770,12 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,71; 3,9</t>
+          <t>2,72; 3,92</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>5,3; 7,13</t>
+          <t>5,37; 7,1</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>9,12; 11,26</t>
+          <t>9,19; 11,24</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>10,54; 12,9</t>
+          <t>10,72; 13,0</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1800,12 +1800,12 @@
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>6,26; 7,51</t>
+          <t>6,18; 7,38</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>8,49; 9,89</t>
+          <t>8,53; 9,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P14_x_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P14_x_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,85; 10,46</t>
+          <t>0,83; 8,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,95; 22,08</t>
+          <t>8,29; 21,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,11; 13,91</t>
+          <t>6,19; 14,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,82</t>
+          <t>1,37; 3,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,49; 14,02</t>
+          <t>8,4; 13,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,33; 8,34</t>
+          <t>5,39; 8,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,41</t>
+          <t>1,41; 3,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,21; 11,0</t>
+          <t>7,26; 11,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,64; 6,93</t>
+          <t>4,77; 6,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,43; 5,25</t>
+          <t>2,4; 5,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,22; 11,81</t>
+          <t>7,29; 11,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,3; 7,92</t>
+          <t>5,3; 7,99</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,22; 6,04</t>
+          <t>3,21; 6,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>9,12; 13,47</t>
+          <t>9,25; 13,25</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,79; 9,28</t>
+          <t>6,88; 9,45</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,72; 3,92</t>
+          <t>2,66; 3,89</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>9,19; 11,24</t>
+          <t>9,26; 11,41</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>6,18; 7,38</t>
+          <t>6,16; 7,43</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
